--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AV-MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_AV-MCPS_General.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.8281763310241397</v>
+        <v>0.8071667876701776</v>
       </c>
       <c r="D2">
-        <v>0.4076098681093816</v>
+        <v>0.4251812386364193</v>
       </c>
       <c r="E2">
         <v>1.788496769659921</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>2.077617057574789</v>
+        <v>1.740132740757265</v>
       </c>
       <c r="D3">
-        <v>0.03779516463393851</v>
+        <v>0.09088139420091923</v>
       </c>
       <c r="E3">
         <v>1.788496769659921</v>
@@ -479,7 +476,7 @@
         <v>1.490925890576784</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.7639663269242956</v>
+        <v>0.9277499347563577</v>
       </c>
       <c r="D4">
-        <v>0.444923079047141</v>
+        <v>0.3600769399336743</v>
       </c>
       <c r="E4">
         <v>1.788496769659921</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.8214094896581874</v>
+        <v>1.27481818975406</v>
       </c>
       <c r="D5">
-        <v>0.4114519202211089</v>
+        <v>0.2110170255661195</v>
       </c>
       <c r="E5">
         <v>1.788496769659921</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.323997243019473</v>
+        <v>1.574654441605272</v>
       </c>
       <c r="D6">
-        <v>0.1855640153795737</v>
+        <v>0.1245967338618694</v>
       </c>
       <c r="E6">
         <v>1.659632225616111</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.1076029453391349</v>
+        <v>-0.09287534776870492</v>
       </c>
       <c r="D7">
-        <v>0.9143149443674492</v>
+        <v>0.926547710051268</v>
       </c>
       <c r="E7">
         <v>1.659632225616111</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.1734052308709001</v>
+        <v>0.2444921432598706</v>
       </c>
       <c r="D8">
-        <v>0.8623398787963619</v>
+        <v>0.8083191949522073</v>
       </c>
       <c r="E8">
         <v>1.659632225616111</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.326959645495599</v>
+        <v>-1.055283365162098</v>
       </c>
       <c r="D9">
-        <v>0.1845821566599033</v>
+        <v>0.2987371065148334</v>
       </c>
       <c r="E9">
         <v>1.490925890576784</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.5685698162194026</v>
+        <v>-0.740030472408127</v>
       </c>
       <c r="D10">
-        <v>0.5696734505263175</v>
+        <v>0.4643611732451853</v>
       </c>
       <c r="E10">
         <v>1.490925890576784</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.2605704361348802</v>
+        <v>0.390674774892358</v>
       </c>
       <c r="D11">
-        <v>0.7944344379834116</v>
+        <v>0.698474892930788</v>
       </c>
       <c r="E11">
         <v>1.675219842934671</v>
